--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1789486.162769784</v>
+        <v>1786941.883615727</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>417425.6313448962</v>
+        <v>417425.631344897</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,7 +674,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>97.26234557100793</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>208.2085323732918</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>31.0111421455553</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>48.44626081894172</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>41.65170393035857</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>74.21579314489045</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>19.72100737961706</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>59.80127191868275</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>263.7138800015062</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>68.53264881198423</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -984,16 +984,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>121.1291242489671</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>14.05653825737673</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>263.7138800015062</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>68.05955538367313</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>182.9377227717321</v>
+        <v>192.0872650464914</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>108.2994289306301</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>16.71410042222081</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>380.1644453249593</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8053789271548</v>
       </c>
       <c r="H11" t="n">
-        <v>280.6055821380947</v>
+        <v>283.1749784766143</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.74901076264507</v>
+        <v>83.74901076264509</v>
       </c>
       <c r="T11" t="n">
         <v>199.0311623452478</v>
@@ -1464,7 +1464,7 @@
         <v>134.4021710092738</v>
       </c>
       <c r="H12" t="n">
-        <v>83.82823269715948</v>
+        <v>83.82823269715949</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0489563585644</v>
+        <v>117.0489563585645</v>
       </c>
       <c r="T12" t="n">
         <v>188.3090395918921</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>46.5104103826589</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5250535492193</v>
       </c>
       <c r="H13" t="n">
-        <v>140.3028503125647</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.29336059121927</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.41639999081859</v>
+        <v>66.4163999908186</v>
       </c>
       <c r="S13" t="n">
         <v>181.0422364341347</v>
@@ -1585,16 +1585,16 @@
         <v>286.1845243123506</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>152.0835135769596</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182133</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>41.55695577161153</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.7228684476145</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890353</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>82.47290449300864</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>23.6255456814109</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892458</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>108.524925799985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057933</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2956,10 +2956,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>61.66004604094759</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229328</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>185.3892167411514</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620682</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>125.2851635392052</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205763855</v>
       </c>
     </row>
     <row r="38">
@@ -3509,10 +3509,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503955</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,7 +3670,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>191.6604102493255</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.421048022933</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>55.52079624060212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>211.8172046759409</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3977,10 +3977,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4141,16 +4141,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>55.52079624060293</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>32.84316668127646</v>
       </c>
     </row>
   </sheetData>
@@ -4313,34 +4313,34 @@
         <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>157.477756798422</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052543</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358416</v>
@@ -4355,22 +4355,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>956.6107264999562</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>956.6107264999562</v>
+        <v>634.167062227511</v>
       </c>
       <c r="W2" t="n">
-        <v>956.6107264999562</v>
+        <v>423.8554133656</v>
       </c>
       <c r="X2" t="n">
-        <v>690.2330699327781</v>
+        <v>423.8554133656</v>
       </c>
       <c r="Y2" t="n">
         <v>423.8554133656</v>
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>436.8369027198906</v>
+        <v>354.787594686703</v>
       </c>
       <c r="C3" t="n">
-        <v>405.5125167142792</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>405.5125167142792</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>405.5125167142792</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004802</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>247.7358133554696</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>438.3365024519934</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166546</v>
+        <v>987.5840192239847</v>
       </c>
       <c r="T3" t="n">
-        <v>691.0742594480922</v>
+        <v>790.7749408554223</v>
       </c>
       <c r="U3" t="n">
-        <v>691.0742594480922</v>
+        <v>562.6390948922358</v>
       </c>
       <c r="V3" t="n">
-        <v>691.0742594480922</v>
+        <v>562.6390948922358</v>
       </c>
       <c r="W3" t="n">
-        <v>436.8369027198906</v>
+        <v>562.6390948922358</v>
       </c>
       <c r="X3" t="n">
-        <v>436.8369027198906</v>
+        <v>354.787594686703</v>
       </c>
       <c r="Y3" t="n">
-        <v>436.8369027198906</v>
+        <v>354.787594686703</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>506.7253812282565</v>
+        <v>232.1057215405108</v>
       </c>
       <c r="C4" t="n">
-        <v>506.7253812282565</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="D4" t="n">
-        <v>506.7253812282565</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="E4" t="n">
-        <v>358.8122876458634</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8122876458634</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2429270008668</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165361</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>773.1030377954346</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>773.1030377954346</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V4" t="n">
-        <v>773.1030377954346</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="W4" t="n">
-        <v>506.7253812282565</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="X4" t="n">
-        <v>506.7253812282565</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="Y4" t="n">
-        <v>506.7253812282565</v>
+        <v>232.1057215405108</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276842</v>
+        <v>53.98113264792562</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>53.98113264792562</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>53.98113264792562</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>53.98113264792562</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
@@ -4565,19 +4565,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358414</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946892</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946892</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="V5" t="n">
-        <v>840.1393936243026</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="W5" t="n">
-        <v>573.7617370571245</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="X5" t="n">
-        <v>307.3840804899464</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.00642392276842</v>
+        <v>53.98113264792562</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>932.5028692494924</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="C6" t="n">
-        <v>758.0498399683654</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D6" t="n">
-        <v>609.1154303071141</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>449.8779753016586</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>648.3904695545987</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
         <v>909.4672107560898</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>932.5028692494924</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T6" t="n">
-        <v>932.5028692494924</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="U6" t="n">
-        <v>932.5028692494924</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="V6" t="n">
-        <v>932.5028692494924</v>
+        <v>652.7312295849119</v>
       </c>
       <c r="W6" t="n">
-        <v>932.5028692494924</v>
+        <v>398.4938728567103</v>
       </c>
       <c r="X6" t="n">
-        <v>932.5028692494924</v>
+        <v>398.4938728567103</v>
       </c>
       <c r="Y6" t="n">
-        <v>932.5028692494924</v>
+        <v>398.4938728567103</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.1449104027203</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C7" t="n">
-        <v>183.2087274748133</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D7" t="n">
-        <v>169.0102039825136</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
         <v>21.0971104001205</v>
@@ -4729,7 +4729,7 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375337</v>
@@ -4750,25 +4750,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>356.2217926073724</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001379</v>
+        <v>356.2217926073724</v>
       </c>
       <c r="W7" t="n">
-        <v>533.79337523296</v>
+        <v>89.84413604019437</v>
       </c>
       <c r="X7" t="n">
-        <v>533.79337523296</v>
+        <v>89.84413604019437</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.79337523296</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1990.953909778728</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.991392838317</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4805,7 +4805,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.55374984285</v>
+        <v>1990.031519739804</v>
       </c>
       <c r="Y8" t="n">
-        <v>2377.55374984285</v>
+        <v>1599.892187763993</v>
       </c>
     </row>
     <row r="9">
@@ -4890,19 +4890,19 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1946.556931114678</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>751.3310369968233</v>
+        <v>368.9218676324038</v>
       </c>
       <c r="C10" t="n">
-        <v>582.3948540689164</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D10" t="n">
-        <v>582.3948540689164</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>434.4817604865233</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1619.563190355082</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1422.934442514944</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1422.934442514944</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1133.816105018781</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>879.1316168128944</v>
       </c>
       <c r="W10" t="n">
-        <v>1381.76163186861</v>
+        <v>589.7144467759339</v>
       </c>
       <c r="X10" t="n">
-        <v>1153.772080970593</v>
+        <v>589.7144467759339</v>
       </c>
       <c r="Y10" t="n">
-        <v>932.979501827063</v>
+        <v>368.9218676324038</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2315.152497609975</v>
+        <v>2317.747847446864</v>
       </c>
       <c r="C11" t="n">
-        <v>1946.189980669564</v>
+        <v>1948.785330506452</v>
       </c>
       <c r="D11" t="n">
-        <v>1587.924282062813</v>
+        <v>1590.519631899702</v>
       </c>
       <c r="E11" t="n">
-        <v>1202.136029464569</v>
+        <v>1204.731379301458</v>
       </c>
       <c r="F11" t="n">
-        <v>791.1501246749615</v>
+        <v>793.74547451185</v>
       </c>
       <c r="G11" t="n">
-        <v>377.2052974758152</v>
+        <v>379.8006473127037</v>
       </c>
       <c r="H11" t="n">
-        <v>93.76531551814379</v>
+        <v>93.76531551814377</v>
       </c>
       <c r="I11" t="n">
-        <v>95.21173263692003</v>
+        <v>95.2117326369189</v>
       </c>
       <c r="J11" t="n">
-        <v>377.8919112275247</v>
+        <v>377.8919112275235</v>
       </c>
       <c r="K11" t="n">
-        <v>852.2947399039303</v>
+        <v>852.2947399039292</v>
       </c>
       <c r="L11" t="n">
-        <v>1477.735160302611</v>
+        <v>1477.73516030261</v>
       </c>
       <c r="M11" t="n">
-        <v>2205.327574907684</v>
+        <v>2205.327574907682</v>
       </c>
       <c r="N11" t="n">
-        <v>2949.307003834349</v>
+        <v>2949.307003834348</v>
       </c>
       <c r="O11" t="n">
-        <v>3638.490420549535</v>
+        <v>3638.490420549532</v>
       </c>
       <c r="P11" t="n">
-        <v>4192.191521035116</v>
+        <v>4192.191521035114</v>
       </c>
       <c r="Q11" t="n">
-        <v>4559.825241454988</v>
+        <v>4559.825241454986</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.26577590719</v>
+        <v>4688.265775907188</v>
       </c>
       <c r="S11" t="n">
-        <v>4603.670815540881</v>
+        <v>4603.67081554088</v>
       </c>
       <c r="T11" t="n">
-        <v>4402.629237414369</v>
+        <v>4402.629237414367</v>
       </c>
       <c r="U11" t="n">
-        <v>4149.188970524674</v>
+        <v>4149.188970524672</v>
       </c>
       <c r="V11" t="n">
-        <v>3818.126083181103</v>
+        <v>3818.126083181101</v>
       </c>
       <c r="W11" t="n">
-        <v>3465.357427910989</v>
+        <v>3465.357427910987</v>
       </c>
       <c r="X11" t="n">
-        <v>3091.891669649909</v>
+        <v>3091.891669649907</v>
       </c>
       <c r="Y11" t="n">
-        <v>2701.752337674097</v>
+        <v>2701.752337674096</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4402980405271</v>
       </c>
       <c r="H12" t="n">
-        <v>93.76531551814379</v>
+        <v>93.76531551814377</v>
       </c>
       <c r="I12" t="n">
-        <v>93.76531551814379</v>
+        <v>93.76531551814377</v>
       </c>
       <c r="J12" t="n">
-        <v>243.3098463766221</v>
+        <v>243.309846376622</v>
       </c>
       <c r="K12" t="n">
-        <v>577.0600934411127</v>
+        <v>577.0600934411126</v>
       </c>
       <c r="L12" t="n">
         <v>1072.151029113137</v>
       </c>
       <c r="M12" t="n">
-        <v>1669.255667283845</v>
+        <v>1072.151029113137</v>
       </c>
       <c r="N12" t="n">
-        <v>1669.255667283845</v>
+        <v>1699.467895231669</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.506231691816</v>
+        <v>2251.120476233788</v>
       </c>
       <c r="P12" t="n">
         <v>2319.92299625338</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>995.5163322896493</v>
+        <v>580.0151616454765</v>
       </c>
       <c r="C13" t="n">
-        <v>826.5801493617424</v>
+        <v>411.0789787175696</v>
       </c>
       <c r="D13" t="n">
-        <v>779.5999368540062</v>
+        <v>260.9623393052339</v>
       </c>
       <c r="E13" t="n">
-        <v>631.686843271613</v>
+        <v>260.9623393052339</v>
       </c>
       <c r="F13" t="n">
-        <v>484.7968957737027</v>
+        <v>260.9623393052339</v>
       </c>
       <c r="G13" t="n">
-        <v>317.5998719866125</v>
+        <v>93.76531551814377</v>
       </c>
       <c r="H13" t="n">
-        <v>175.87982116584</v>
+        <v>93.76531551814377</v>
       </c>
       <c r="I13" t="n">
-        <v>93.76531551814379</v>
+        <v>93.76531551814377</v>
       </c>
       <c r="J13" t="n">
         <v>173.9372723687385</v>
       </c>
       <c r="K13" t="n">
-        <v>435.5212620398426</v>
+        <v>435.5212620398424</v>
       </c>
       <c r="L13" t="n">
-        <v>825.7851432062816</v>
+        <v>825.7851432062814</v>
       </c>
       <c r="M13" t="n">
         <v>1247.652809956955</v>
@@ -5215,34 +5215,34 @@
         <v>2034.325229908151</v>
       </c>
       <c r="P13" t="n">
-        <v>2326.891096275498</v>
+        <v>2326.891096275497</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.013457116466</v>
+        <v>2446.013457116465</v>
       </c>
       <c r="R13" t="n">
-        <v>2378.926184398468</v>
+        <v>2378.926184398467</v>
       </c>
       <c r="S13" t="n">
         <v>2196.055238505402</v>
       </c>
       <c r="T13" t="n">
-        <v>1976.449823383562</v>
+        <v>1976.449823383561</v>
       </c>
       <c r="U13" t="n">
-        <v>1687.37454630038</v>
+        <v>1687.374546300379</v>
       </c>
       <c r="V13" t="n">
-        <v>1687.37454630038</v>
+        <v>1432.690058094492</v>
       </c>
       <c r="W13" t="n">
-        <v>1397.957376263419</v>
+        <v>1143.272888057531</v>
       </c>
       <c r="X13" t="n">
-        <v>1397.957376263419</v>
+        <v>915.2833371595138</v>
       </c>
       <c r="Y13" t="n">
-        <v>1177.164797119889</v>
+        <v>761.6636264757162</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5276,22 +5276,22 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921476</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898186995</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,19 +5534,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991042</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5698,25 +5698,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2330.071297269539</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2330.071297269539</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2040.996070613737</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1786.31158240785</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1496.894412370889</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.07903472198</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961267</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6069,22 +6069,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C25" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>1101.708762187754</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y25" t="n">
-        <v>880.9161830442239</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="29">
@@ -6455,25 +6455,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,13 +6482,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036857</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
         <v>235.5284942057738</v>
@@ -6613,10 +6613,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="32">
@@ -6680,22 +6680,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6786,13 +6786,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,28 +6929,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="38">
@@ -7157,7 +7157,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,49 +7333,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122164</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>149.8982754122164</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7576,43 +7576,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327634</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048565</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925207</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101276</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>149.8982754122173</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7816,10 +7816,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.76484885336</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580259</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806533</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630031</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5.262887399594234</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,10 +8304,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>5.262887399594348</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>294.8344935184734</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>255.8421700460953</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.569396338521301</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.569396338519596</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>102.1050626355535</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.3028503125647</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.29336059121928</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>66.50113977513516</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8640922513197</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23938,10 +23938,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>65.30341755403009</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>84.77391660561919</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>124.9899273368015</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>117.1847295890522</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631857025</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
     </row>
     <row r="29">
@@ -24844,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>84.77391660562158</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>92.12028678808304</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>186.7544012944562</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>25.74504007796278</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>84.77391660562176</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>40.32043864788713</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>110.0033420516659</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>185.7414866708183</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>877441.6981069536</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583911</v>
@@ -26320,40 +26320,40 @@
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544669.9127392783</v>
+        <v>544669.9127392782</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="I2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>506886.0326267345</v>
+        <v>506886.0326267341</v>
       </c>
       <c r="F3" t="n">
-        <v>585.0966390488127</v>
+        <v>585.096639048943</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756973</v>
+        <v>95382.64613756978</v>
       </c>
       <c r="M3" t="n">
-        <v>132447.3436061357</v>
+        <v>132447.3436061356</v>
       </c>
       <c r="N3" t="n">
-        <v>157.2049554775576</v>
+        <v>157.2049554776133</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26442,13 +26442,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.8032042662</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-439265.2551119304</v>
+        <v>-439265.2551119305</v>
       </c>
       <c r="C6" t="n">
         <v>240822.7254792627</v>
@@ -26528,40 +26528,40 @@
         <v>-68997.48870973787</v>
       </c>
       <c r="E6" t="n">
-        <v>-73845.3154990836</v>
+        <v>-73880.62395063561</v>
       </c>
       <c r="F6" t="n">
-        <v>432559.2400410169</v>
+        <v>432524.5021155808</v>
       </c>
       <c r="G6" t="n">
-        <v>433144.3366800659</v>
+        <v>433109.5987546298</v>
       </c>
       <c r="H6" t="n">
-        <v>433144.3366800659</v>
+        <v>433109.5987546298</v>
       </c>
       <c r="I6" t="n">
-        <v>433144.3366800655</v>
+        <v>433109.5987546298</v>
       </c>
       <c r="J6" t="n">
-        <v>364145.1822609514</v>
+        <v>364110.4443355158</v>
       </c>
       <c r="K6" t="n">
-        <v>433144.3366800657</v>
+        <v>433109.5987546299</v>
       </c>
       <c r="L6" t="n">
-        <v>337761.6905424958</v>
+        <v>337726.9526170598</v>
       </c>
       <c r="M6" t="n">
-        <v>300696.9930739301</v>
+        <v>300662.2551484945</v>
       </c>
       <c r="N6" t="n">
-        <v>432987.1317245882</v>
+        <v>432952.3937991526</v>
       </c>
       <c r="O6" t="n">
-        <v>433144.3366800655</v>
+        <v>433109.5987546301</v>
       </c>
       <c r="P6" t="n">
-        <v>433144.3366800657</v>
+        <v>433109.5987546298</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015062</v>
@@ -26802,10 +26802,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.4030566425512</v>
+        <v>433.403056642551</v>
       </c>
       <c r="F3" t="n">
         <v>0.5075515815835843</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>531.4816118767587</v>
+        <v>531.4816118767581</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6418441228508982</v>
+        <v>0.6418441228513529</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="M4" t="n">
-        <v>531.4816118767585</v>
+        <v>531.4816118767581</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6418441228511256</v>
+        <v>0.6418441228513529</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>531.4816118767587</v>
+        <v>531.4816118767581</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6418441228508982</v>
+        <v>0.6418441228513529</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>153.8858223072746</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>141.0324363441212</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>141.6973568427604</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,22 +27506,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>98.70367459325706</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>125.231963108188</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>148.9985527346754</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>387.1550383620944</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>267.9509865514522</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>122.5240586545474</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>98.00053483788311</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>26.02081116323171</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27752,10 +27752,10 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>134.5589347608356</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27822,16 +27822,16 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>22.8091183350848</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>150.5250979684217</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>186.793377906737</v>
+        <v>177.6438356319777</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>37.1216190923011</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>84.84347199735282</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.386056343235277e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.069709837950007e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29250,7 +29250,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30229,10 +30229,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30627,7 +30627,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -30697,10 +30697,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30894,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>-8.264734206300728e-14</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31753,37 +31753,37 @@
         <v>5.497358587980258</v>
       </c>
       <c r="H11" t="n">
-        <v>56.29982363915284</v>
+        <v>56.29982363915283</v>
       </c>
       <c r="I11" t="n">
         <v>211.9369169631091</v>
       </c>
       <c r="J11" t="n">
-        <v>466.5814384565899</v>
+        <v>466.5814384565898</v>
       </c>
       <c r="K11" t="n">
-        <v>699.2846274857944</v>
+        <v>699.2846274857943</v>
       </c>
       <c r="L11" t="n">
-        <v>867.5244153726954</v>
+        <v>867.5244153726953</v>
       </c>
       <c r="M11" t="n">
-        <v>965.2880661616894</v>
+        <v>965.2880661616891</v>
       </c>
       <c r="N11" t="n">
-        <v>980.9074362497882</v>
+        <v>980.9074362497881</v>
       </c>
       <c r="O11" t="n">
-        <v>926.2430767905595</v>
+        <v>926.2430767905594</v>
       </c>
       <c r="P11" t="n">
-        <v>790.5270366497967</v>
+        <v>790.5270366497966</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.6528822177536</v>
+        <v>593.6528822177535</v>
       </c>
       <c r="R11" t="n">
-        <v>345.3234514022153</v>
+        <v>345.3234514022152</v>
       </c>
       <c r="S11" t="n">
         <v>125.2710588236003</v>
@@ -31832,31 +31832,31 @@
         <v>2.941346153936798</v>
       </c>
       <c r="H12" t="n">
-        <v>28.40721153933698</v>
+        <v>28.40721153933697</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.8927083418973</v>
+        <v>277.8927083418972</v>
       </c>
       <c r="K12" t="n">
         <v>474.9629006556627</v>
       </c>
       <c r="L12" t="n">
-        <v>638.6462339940404</v>
+        <v>638.6462339940402</v>
       </c>
       <c r="M12" t="n">
-        <v>745.2700320742491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>764.9951122030621</v>
       </c>
       <c r="O12" t="n">
-        <v>372.1422690989602</v>
+        <v>699.8210737395152</v>
       </c>
       <c r="P12" t="n">
-        <v>561.6681089916681</v>
+        <v>203.4719023836151</v>
       </c>
       <c r="Q12" t="n">
         <v>375.4602564218271</v>
@@ -31865,7 +31865,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.63421474527339</v>
+        <v>54.63421474527338</v>
       </c>
       <c r="T12" t="n">
         <v>11.85568910292946</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.465925809239507</v>
+        <v>2.465925809239506</v>
       </c>
       <c r="H13" t="n">
         <v>21.9243221948749</v>
       </c>
       <c r="I13" t="n">
-        <v>74.15711433603902</v>
+        <v>74.157114336039</v>
       </c>
       <c r="J13" t="n">
         <v>174.3409547132331</v>
@@ -31923,7 +31923,7 @@
         <v>286.4957440189172</v>
       </c>
       <c r="L13" t="n">
-        <v>366.6159153118446</v>
+        <v>366.6159153118445</v>
       </c>
       <c r="M13" t="n">
         <v>386.545079351971</v>
@@ -31932,7 +31932,7 @@
         <v>377.353901335715</v>
       </c>
       <c r="O13" t="n">
-        <v>348.5474043823261</v>
+        <v>348.547404382326</v>
       </c>
       <c r="P13" t="n">
         <v>298.2425178738399</v>
@@ -31944,7 +31944,7 @@
         <v>110.8769913863509</v>
       </c>
       <c r="S13" t="n">
-        <v>42.97436160283758</v>
+        <v>42.97436160283757</v>
       </c>
       <c r="T13" t="n">
         <v>10.53622845765971</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>362.8934092184356</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L18" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>163.4402738502014</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,13 +32789,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>209.2370040367373</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>508.8976500257891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>528.7932908500043</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33506,16 +33506,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N33" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33992,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,13 +34214,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>263.7590256391499</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>153.4895779655505</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34790,13 +34790,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K6" t="n">
         <v>75.4384048176305</v>
@@ -35024,10 +35024,10 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>217.4386117456601</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>263.7138800015062</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
@@ -35258,22 +35258,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>630.2591755145964</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>505.5216991696276</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.461027392703215</v>
+        <v>1.461027392703187</v>
       </c>
       <c r="J11" t="n">
-        <v>285.5355339299036</v>
+        <v>285.5355339299035</v>
       </c>
       <c r="K11" t="n">
-        <v>479.1947764408139</v>
+        <v>479.1947764408138</v>
       </c>
       <c r="L11" t="n">
         <v>631.7580004027081</v>
       </c>
       <c r="M11" t="n">
-        <v>734.9418329344167</v>
+        <v>734.9418329344164</v>
       </c>
       <c r="N11" t="n">
-        <v>751.4943726531974</v>
+        <v>751.4943726531972</v>
       </c>
       <c r="O11" t="n">
-        <v>696.1448653688727</v>
+        <v>696.1448653688726</v>
       </c>
       <c r="P11" t="n">
         <v>559.2940408945271</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.3471923433041</v>
+        <v>371.347192343304</v>
       </c>
       <c r="R11" t="n">
         <v>129.7379135880831</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.0550816752306</v>
+        <v>151.0550816752305</v>
       </c>
       <c r="K12" t="n">
         <v>337.1214616813037</v>
       </c>
       <c r="L12" t="n">
-        <v>500.0918542141662</v>
+        <v>500.0918542141661</v>
       </c>
       <c r="M12" t="n">
-        <v>603.1359981522307</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.6534001197289</v>
       </c>
       <c r="O12" t="n">
-        <v>229.5460246545158</v>
+        <v>557.2248292950708</v>
       </c>
       <c r="P12" t="n">
-        <v>427.6937015773378</v>
+        <v>69.49749496928492</v>
       </c>
       <c r="Q12" t="n">
         <v>235.4784823358056</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>80.98177459656037</v>
+        <v>80.98177459656034</v>
       </c>
       <c r="K13" t="n">
-        <v>264.2262521930344</v>
+        <v>264.2262521930343</v>
       </c>
       <c r="L13" t="n">
         <v>394.2059405721607</v>
@@ -35580,10 +35580,10 @@
         <v>421.4860737149436</v>
       </c>
       <c r="O13" t="n">
-        <v>373.1325322963658</v>
+        <v>373.1325322963657</v>
       </c>
       <c r="P13" t="n">
-        <v>295.5210771387334</v>
+        <v>295.5210771387333</v>
       </c>
       <c r="Q13" t="n">
         <v>120.3256170110792</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>224.3390294385614</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>44.09163190712582</v>
       </c>
       <c r="L18" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>29.46586643587111</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36437,13 +36437,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>366.7636161037707</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>386.659256927986</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37154,16 +37154,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N33" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37464,7 +37464,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191314</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37640,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L40" t="n">
         <v>394.3420143191314</v>
@@ -37719,7 +37719,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.402257299897</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>132.4173135558165</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37944,7 +37944,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010436</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38184,13 +38184,13 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899057</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066234</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>
